--- a/src/main/resources/template/excel/export/newGoodsSaleAnalysis.xlsx
+++ b/src/main/resources/template/excel/export/newGoodsSaleAnalysis.xlsx
@@ -36,7 +36,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q3")</t>
+          <t>jx:area(lastCell="Q4")</t>
         </r>
       </text>
     </comment>
@@ -60,9 +60,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
-    <t>商品销售汇总分析-商品汇总</t>
-  </si>
-  <si>
     <t>货号</t>
   </si>
   <si>
@@ -187,10 +184,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(K3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>$[SUMPRODUCT(N3)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -200,6 +193,14 @@
   </si>
   <si>
     <t>$[SUMPRODUCT(P3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品销售分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(K3:K3:K3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -434,6 +435,27 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,27 +463,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,7 +772,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -787,160 +788,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="7"/>
+      <c r="A1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13" t="s">
+      <c r="O4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13" t="s">
+      <c r="P4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/template/excel/export/newGoodsSaleAnalysis.xlsx
+++ b/src/main/resources/template/excel/export/newGoodsSaleAnalysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q3")</t>
+          <t>jx:area(lastCell="R3")</t>
         </r>
       </text>
     </comment>
@@ -49,7 +49,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="Q3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="R3")</t>
         </r>
       </text>
     </comment>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>商品销售汇总分析-商品汇总</t>
   </si>
@@ -200,6 +200,14 @@
   </si>
   <si>
     <t>$[SUMPRODUCT(P3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>售罄率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.sellOut}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -412,13 +420,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,6 +455,27 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -443,25 +485,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -783,32 +807,33 @@
     <col min="5" max="5" width="18.625" customWidth="1"/>
     <col min="6" max="8" width="12.625" customWidth="1"/>
     <col min="9" max="9" width="16.75" customWidth="1"/>
-    <col min="10" max="17" width="12.625" customWidth="1"/>
+    <col min="10" max="18" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="7"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -856,12 +881,15 @@
       <c r="P2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="R2" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -909,42 +937,46 @@
       <c r="P3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="R3" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13" t="s">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/newGoodsSaleAnalysis.xlsx
+++ b/src/main/resources/template/excel/export/newGoodsSaleAnalysis.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27570" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,7 +32,7 @@
     <author>lijy02</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -36,11 +41,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="R3")</t>
+          <t>jx:area(lastCell="R4")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0">
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -60,9 +65,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
-    <t>商品销售汇总分析-商品汇总</t>
-  </si>
-  <si>
     <t>货号</t>
   </si>
   <si>
@@ -208,6 +210,13 @@
   </si>
   <si>
     <t>${obj.sellOut}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品销售分析</t>
+    <rPh sb="0" eb="1">
+      <t>xin'p</t>
+    </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -302,13 +311,13 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -323,7 +332,7 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -335,10 +344,10 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -347,7 +356,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -365,7 +374,7 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -377,7 +386,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -386,7 +395,7 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -401,7 +410,7 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -410,13 +419,13 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,7 +435,7 @@
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -482,10 +491,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,7 +502,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -794,25 +803,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="16.75" customWidth="1"/>
-    <col min="10" max="18" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="18" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -829,124 +838,124 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="15"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="R2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -958,18 +967,18 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="P4" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
@@ -991,7 +1000,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1005,7 +1014,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
